--- a/Admin/combinedTimetable.xlsx
+++ b/Admin/combinedTimetable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/volcanic-ash-uav/Admin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,9 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -292,6 +294,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -302,6 +307,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -632,325 +642,321 @@
   </sheetPr>
   <dimension ref="B3:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:AD18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="39.33203125" customWidth="1"/>
     <col min="5" max="29" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:29">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:29">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="29" customHeight="1">
-      <c r="E8" s="11" t="s">
+    <row r="8" spans="2:29" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11" t="s">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11" t="s">
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-    </row>
-    <row r="9" spans="2:29" ht="63" customHeight="1">
-      <c r="D9" s="20" t="s">
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+    </row>
+    <row r="9" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="14"/>
-    </row>
-    <row r="10" spans="2:29" ht="63" customHeight="1">
-      <c r="D10" s="20" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="13"/>
+    </row>
+    <row r="10" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="14"/>
-    </row>
-    <row r="11" spans="2:29" ht="63" customHeight="1">
-      <c r="D11" s="20" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="13"/>
+    </row>
+    <row r="11" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="14"/>
-    </row>
-    <row r="12" spans="2:29" ht="63" customHeight="1">
-      <c r="D12" s="20" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="13"/>
+    </row>
+    <row r="12" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="14"/>
-    </row>
-    <row r="13" spans="2:29" ht="63" customHeight="1">
-      <c r="D13" s="20" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="13"/>
+    </row>
+    <row r="13" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="14"/>
-    </row>
-    <row r="14" spans="2:29" ht="63" customHeight="1">
-      <c r="D14" s="20" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="13"/>
+    </row>
+    <row r="14" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="14"/>
-    </row>
-    <row r="15" spans="2:29" ht="63" customHeight="1">
-      <c r="D15" s="20" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="11"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="13"/>
+    </row>
+    <row r="15" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="14"/>
-    </row>
-    <row r="16" spans="2:29" ht="63" customHeight="1">
-      <c r="D16" s="20" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="11"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="13"/>
+    </row>
+    <row r="16" spans="2:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="14"/>
-    </row>
-    <row r="17" spans="4:29" ht="63" customHeight="1">
-      <c r="D17" s="20" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="4:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="7"/>
@@ -979,10 +985,10 @@
       <c r="AB17" s="8"/>
       <c r="AC17" s="10"/>
     </row>
-    <row r="18" spans="4:29" ht="63" customHeight="1">
+    <row r="18" spans="4:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="4:29" ht="63" customHeight="1">
+    <row r="19" spans="4:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="6"/>
     </row>
   </sheetData>
@@ -996,10 +1002,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>